--- a/EdPracVar15C#/EdPracVar15_Test.xlsx
+++ b/EdPracVar15C#/EdPracVar15_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="285">
   <si>
     <t xml:space="preserve">Тестирование программы для перdого задания учебной практики</t>
   </si>
@@ -421,39 +421,36 @@
     <t xml:space="preserve">2.2.4 Ноль</t>
   </si>
   <si>
-    <t xml:space="preserve">А1 = -5</t>
+    <t xml:space="preserve">А1 = 1.3</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.5 Целое отрицательное число</t>
   </si>
   <si>
-    <t xml:space="preserve">А1 = 1.3</t>
+    <t xml:space="preserve">А1 = отсутствие значения</t>
   </si>
   <si>
     <t xml:space="preserve">2.2.6 Целое положительное число</t>
   </si>
   <si>
-    <t xml:space="preserve">А1 = отсутствие значения</t>
-  </si>
-  <si>
     <t xml:space="preserve">А1 = 'строка'</t>
   </si>
   <si>
+    <t xml:space="preserve">А1 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод матрицы {1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.1  Ошибка ввода! Введено не целое число</t>
   </si>
   <si>
-    <t xml:space="preserve">А1 = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод матрицы {1}</t>
+    <t xml:space="preserve">b1 = 100</t>
   </si>
   <si>
     <t xml:space="preserve">3.2 Ошибка ввода! Введено число меньше допустимого значения</t>
   </si>
   <si>
-    <t xml:space="preserve">b1 = 100</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.3 Вывод последовательности чисел</t>
   </si>
   <si>
@@ -463,54 +460,54 @@
     <t xml:space="preserve">3.5. Строка №</t>
   </si>
   <si>
+    <t xml:space="preserve">А11 = -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите целочисленное значение элемента №2</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.6. Введите целочисленное значение элемента №</t>
   </si>
   <si>
-    <t xml:space="preserve">А11 = -1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введите целочисленное значение элемента №2</t>
+    <t xml:space="preserve">А12 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строка №2</t>
   </si>
   <si>
     <t xml:space="preserve">4. Порядок матрицы</t>
   </si>
   <si>
-    <t xml:space="preserve">А12 = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Строка №2</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.1 Порядок 1</t>
   </si>
   <si>
+    <t xml:space="preserve">А21 = 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2 Порядок больше одного</t>
   </si>
   <si>
-    <t xml:space="preserve">А21 = 2</t>
+    <t xml:space="preserve">А22 = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод матрицы {-1, 1}, {2, 3}</t>
   </si>
   <si>
     <t xml:space="preserve">5. Наличие отрицательных элементов</t>
   </si>
   <si>
-    <t xml:space="preserve">А22 = 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод матрицы {-1, 1}, {2, 3}</t>
+    <t xml:space="preserve">b1 = 1, b2 = 100</t>
   </si>
   <si>
     <t xml:space="preserve">5.1 Ноль</t>
   </si>
   <si>
-    <t xml:space="preserve">b1 = 1, b2 = 100</t>
+    <t xml:space="preserve">n = 3</t>
   </si>
   <si>
     <t xml:space="preserve">5.2 Один</t>
   </si>
   <si>
-    <t xml:space="preserve">n = 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.3 Больше одного</t>
   </si>
   <si>
@@ -520,75 +517,75 @@
     <t xml:space="preserve">5.1 Один</t>
   </si>
   <si>
+    <t xml:space="preserve">А12 = -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите целочисленное значение элемента №3</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.2 Больше одного</t>
   </si>
   <si>
-    <t xml:space="preserve">А12 = -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Введите целочисленное значение элемента №3</t>
+    <t xml:space="preserve">А13 = 3</t>
   </si>
   <si>
     <t xml:space="preserve">7. Минимальное грубое тестирование</t>
   </si>
   <si>
-    <t xml:space="preserve">А13 = 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.1. Ветвление конвертации строки в целое число (GetInt)</t>
   </si>
   <si>
+    <t xml:space="preserve">А21 = 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.1.1. Удалось</t>
   </si>
   <si>
-    <t xml:space="preserve">А21 = 1</t>
+    <t xml:space="preserve">А22 = 2</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.2. Не удалось</t>
   </si>
   <si>
-    <t xml:space="preserve">А22 = 2</t>
+    <t xml:space="preserve">А23 = -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строка №3</t>
   </si>
   <si>
     <t xml:space="preserve">7.2. Ветвление генерации матрицы</t>
   </si>
   <si>
-    <t xml:space="preserve">А23 = -3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Строка №3</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.2.1. В ручную (ответ с консоли = '1')</t>
   </si>
   <si>
+    <t xml:space="preserve">А31 = 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.4.2. С помощью генератора случайных чисел (ответ с консоли !=  '1')</t>
   </si>
   <si>
-    <t xml:space="preserve">А31 = 3</t>
+    <t xml:space="preserve">А32 = 2</t>
   </si>
   <si>
     <t xml:space="preserve">7.3. Цикл генерации матрицы вручную</t>
   </si>
   <si>
-    <t xml:space="preserve">А32 = 2</t>
+    <t xml:space="preserve">А33 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод матрицы {-1, -2, 3}, {1, 2, -3}, {3, 2, 0}</t>
   </si>
   <si>
     <t xml:space="preserve">7.3.1. Одна итерация</t>
   </si>
   <si>
-    <t xml:space="preserve">А33 = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод матрицы {-1, -2, 3}, {1, 2, -3}, {3, 2, 0}</t>
+    <t xml:space="preserve">b1 = 1, b2 = 100, b3 = 0</t>
   </si>
   <si>
     <t xml:space="preserve">7.3.2. Больше одной итерации</t>
   </si>
   <si>
-    <t xml:space="preserve">b1 = 1, b2 = 100, b3 = 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.4. Цикл генерации матрицы с помощью генератора случайных чисел</t>
   </si>
   <si>
@@ -634,45 +631,155 @@
     <t xml:space="preserve">2.1 Количество чисел N</t>
   </si>
   <si>
+    <t xml:space="preserve">n = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите действительное число A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А1 = 'qwerty'</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.4 Целое число &gt; 3</t>
   </si>
   <si>
+    <t xml:space="preserve">А1 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите действительное число A2</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.1.5 Целое число &lt;= 3</t>
   </si>
   <si>
+    <t xml:space="preserve">А2 = -12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите действительное число A3</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2 Числа А1, А2, А3</t>
   </si>
   <si>
+    <t xml:space="preserve">А3 = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите действительное число M для ограничения значения очередного числа по модулю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M = отсутствие значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M = 'string'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М = 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] [35]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.5 Целое число</t>
   </si>
   <si>
+    <t xml:space="preserve">Последовательность длиной J = 5, J &gt; N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.6 Отрицательное число</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3 Чиcло M</t>
   </si>
   <si>
     <t xml:space="preserve">2.3.1 Отсутствие значения</t>
   </si>
   <si>
+    <t xml:space="preserve">А2 = -0,18</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.2. Строковое значение</t>
   </si>
   <si>
+    <t xml:space="preserve">А3 = -0,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0,06] [0,05]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.3 Действительное число &gt; |A4|</t>
   </si>
   <si>
+    <t xml:space="preserve">М = 0,06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка ввода! Введено число &lt;= допустимого значения </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.4 Действительное число &lt;= |A4|</t>
   </si>
   <si>
+    <t xml:space="preserve">М = 0,2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">[-0,06] [0,05]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [-0,155] </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2.3.5 Целое число</t>
   </si>
   <si>
+    <t xml:space="preserve">Последовательность длиной J = 6, J &gt; N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А2 = 0</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.3 Ошибка ввода! Введено не действительное число</t>
   </si>
   <si>
+    <t xml:space="preserve">А3 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0] [0]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.4 Введите действительное число A</t>
   </si>
   <si>
+    <t xml:space="preserve">М = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вычисление невозможно - все переменные равны нулю</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.5 Вывод последовательности из N чисел начиная с четвертого</t>
   </si>
   <si>
+    <t xml:space="preserve">N = 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.6 Введите действительное число M для ограничения значения очередного числа по модулю</t>
   </si>
   <si>
@@ -682,7 +789,19 @@
     <t xml:space="preserve">3.8 Последовательность длиной J, J &lt; / &gt; / = N</t>
   </si>
   <si>
+    <t xml:space="preserve">[18] [19]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9 Вычисление невозможно - все переменные равны нулю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М = 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">4. Длина последовательности из N чисел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Последовательность длиной J = 5, J = N</t>
   </si>
   <si>
     <t xml:space="preserve">4.1 Четыре элемента(минимум)</t>
@@ -785,7 +904,7 @@
     <numFmt numFmtId="166" formatCode="DD/MMM"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -911,6 +1030,33 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -946,7 +1092,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -980,7 +1126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1014,13 +1160,6 @@
       <left/>
       <right style="hair"/>
       <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -1105,7 +1244,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1162,28 +1301,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1202,11 +1333,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,11 +1345,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1251,13 +1394,13 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF996600"/>
@@ -1315,10 +1458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L46" activeCellId="0" sqref="L46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="A133:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,13 +1469,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="3.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="47.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="43.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1498,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1372,7 +1517,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1647,7 @@
       </c>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1675,7 @@
       </c>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -1558,7 +1703,7 @@
       </c>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1733,7 @@
       </c>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1618,7 +1763,7 @@
       </c>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -1650,7 +1795,7 @@
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1680,7 +1825,7 @@
       </c>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1712,7 +1857,7 @@
       </c>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
@@ -1742,7 +1887,7 @@
       </c>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -1774,7 +1919,7 @@
       </c>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1804,7 +1949,7 @@
       </c>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
@@ -1836,7 +1981,7 @@
       </c>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1866,7 +2011,7 @@
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1898,7 +2043,7 @@
       </c>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
@@ -1928,7 +2073,7 @@
       </c>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -1960,7 +2105,7 @@
       </c>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
         <v>67</v>
       </c>
@@ -1988,7 +2133,7 @@
       </c>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
@@ -2024,7 +2169,7 @@
       </c>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
@@ -2054,7 +2199,7 @@
       </c>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
@@ -2086,7 +2231,7 @@
       </c>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -2116,7 +2261,7 @@
       </c>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
         <v>78</v>
       </c>
@@ -2150,7 +2295,7 @@
       </c>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>81</v>
       </c>
@@ -2182,7 +2327,7 @@
       </c>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -2214,7 +2359,7 @@
       </c>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
@@ -2287,69 +2432,69 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="17"/>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="14"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-    </row>
-    <row r="33" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
@@ -2389,10 +2534,10 @@
         <v>22</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
@@ -2412,10 +2557,10 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
@@ -2455,10 +2600,10 @@
         <v>22</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
@@ -2476,31 +2621,31 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
@@ -2540,10 +2685,10 @@
         <v>22</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
@@ -2563,33 +2708,33 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
         <v>100</v>
       </c>
@@ -2618,7 +2763,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
@@ -2640,7 +2785,7 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="7"/>
@@ -2653,7 +2798,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2672,7 +2817,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2691,7 +2836,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>102</v>
       </c>
@@ -2712,7 +2857,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2731,7 +2876,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>1</v>
       </c>
@@ -2769,11 +2914,11 @@
         <v>12</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="5" t="s">
-        <v>18</v>
+      <c r="N48" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>15</v>
@@ -2798,14 +2943,18 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="5"/>
+      <c r="N49" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O49" s="6" t="s">
         <v>103</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q49" s="7"/>
+      <c r="Q49" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
@@ -2840,7 +2989,9 @@
       <c r="P50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q50" s="7"/>
+      <c r="Q50" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="s">
@@ -2865,7 +3016,9 @@
       <c r="P51" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="7"/>
+      <c r="Q51" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="s">
@@ -2890,7 +3043,9 @@
       <c r="P52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q52" s="7"/>
+      <c r="Q52" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
@@ -2917,7 +3072,9 @@
       <c r="P53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q53" s="7"/>
+      <c r="Q53" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
@@ -2944,7 +3101,9 @@
       <c r="P54" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q54" s="7"/>
+      <c r="Q54" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
@@ -2971,7 +3130,9 @@
       <c r="P55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Q55" s="7"/>
+      <c r="Q55" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
@@ -2996,7 +3157,9 @@
       <c r="P56" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Q56" s="7"/>
+      <c r="Q56" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
@@ -3025,7 +3188,9 @@
       <c r="P57" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q57" s="7"/>
+      <c r="Q57" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
@@ -3060,7 +3225,9 @@
       <c r="P58" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="Q58" s="7"/>
+      <c r="Q58" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
@@ -3083,7 +3250,9 @@
       <c r="P59" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="Q59" s="7"/>
+      <c r="Q59" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
@@ -3103,7 +3272,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="25" t="s">
+      <c r="N60" s="23" t="s">
         <v>4</v>
       </c>
       <c r="O60" s="6" t="s">
@@ -3112,7 +3281,9 @@
       <c r="P60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q60" s="7"/>
+      <c r="Q60" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
@@ -3132,14 +3303,16 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="25"/>
+      <c r="N61" s="23"/>
       <c r="O61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="P61" s="26" t="s">
+      <c r="P61" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="Q61" s="7"/>
+      <c r="Q61" s="24" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
@@ -3159,12 +3332,14 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="25"/>
+      <c r="N62" s="23"/>
       <c r="O62" s="7"/>
       <c r="P62" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q62" s="7"/>
+      <c r="Q62" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
@@ -3184,14 +3359,16 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="25"/>
+      <c r="N63" s="23"/>
       <c r="O63" s="6" t="s">
         <v>133</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q63" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="Q63" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
@@ -3199,9 +3376,7 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
         <v>22</v>
       </c>
@@ -3215,14 +3390,16 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="25"/>
+      <c r="N64" s="23"/>
       <c r="O64" s="6" t="s">
         <v>135</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q64" s="7"/>
+      <c r="Q64" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
@@ -3246,14 +3423,16 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="25"/>
+      <c r="N65" s="23"/>
       <c r="O65" s="6" t="s">
         <v>137</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q65" s="7"/>
+      <c r="Q65" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
@@ -3271,74 +3450,82 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="25"/>
+      <c r="N66" s="23"/>
       <c r="O66" s="6" t="s">
         <v>138</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q66" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
+        <v>140</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="N67" s="23"/>
+      <c r="O67" s="7"/>
       <c r="P67" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="Q67" s="7"/>
+      <c r="Q67" s="7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
+      <c r="B68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q68" s="7"/>
+      <c r="N68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>22</v>
@@ -3362,20 +3549,20 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="N69" s="5"/>
       <c r="O69" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q69" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="P69" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q69" s="24" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26" t="s">
-        <v>145</v>
+      <c r="A70" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>22</v>
@@ -3400,17 +3587,17 @@
       <c r="L70" s="4"/>
       <c r="M70" s="2"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P70" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="s">
-        <v>146</v>
+      <c r="A71" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3431,15 +3618,19 @@
       <c r="L71" s="4"/>
       <c r="M71" s="2"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="7"/>
+      <c r="O71" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="P71" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q71" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="s">
-        <v>147</v>
+      <c r="A72" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>22</v>
@@ -3465,16 +3656,18 @@
       <c r="M72" s="2"/>
       <c r="N72" s="5"/>
       <c r="O72" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="P72" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="Q72" s="7"/>
+      <c r="P72" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q72" s="24" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -3489,17 +3682,17 @@
       <c r="L73" s="10"/>
       <c r="M73" s="2"/>
       <c r="N73" s="5"/>
-      <c r="O73" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="P73" s="26" t="s">
+      <c r="O73" s="6"/>
+      <c r="P73" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="Q73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26" t="s">
-        <v>153</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>22</v>
@@ -3518,14 +3711,18 @@
       <c r="L74" s="4"/>
       <c r="M74" s="2"/>
       <c r="N74" s="5"/>
-      <c r="O74" s="6"/>
+      <c r="O74" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="P74" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q74" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26" t="s">
+      <c r="A75" s="24" t="s">
         <v>154</v>
       </c>
       <c r="B75" s="4"/>
@@ -3551,13 +3748,15 @@
         <v>155</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q75" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -3572,16 +3771,16 @@
       <c r="L76" s="10"/>
       <c r="M76" s="2"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="O76" s="6"/>
       <c r="P76" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="Q76" s="7"/>
+      <c r="Q76" s="7" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26" t="s">
+      <c r="A77" s="24" t="s">
         <v>159</v>
       </c>
       <c r="B77" s="4"/>
@@ -3598,15 +3797,21 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="15" t="s">
+      <c r="N77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O77" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="Q77" s="7"/>
+      <c r="P77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q77" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26" t="s">
+      <c r="A78" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B78" s="4"/>
@@ -3623,20 +3828,20 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="N78" s="5"/>
       <c r="O78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q78" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q78" s="7"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26" t="s">
-        <v>163</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3653,17 +3858,17 @@
       <c r="L79" s="4"/>
       <c r="M79" s="2"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P79" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q79" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -3678,15 +3883,19 @@
       <c r="L80" s="10"/>
       <c r="M80" s="2"/>
       <c r="N80" s="5"/>
-      <c r="O80" s="7"/>
+      <c r="O80" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="P80" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q80" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="Q80" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
-        <v>165</v>
+      <c r="A81" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>22</v>
@@ -3706,16 +3915,18 @@
       <c r="M81" s="2"/>
       <c r="N81" s="5"/>
       <c r="O81" s="6" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q81" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="Q81" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>166</v>
+      <c r="A82" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
@@ -3737,12 +3948,14 @@
       <c r="M82" s="2"/>
       <c r="N82" s="5"/>
       <c r="O82" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="P82" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="Q82" s="7"/>
+      <c r="P82" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q82" s="24" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
@@ -3761,36 +3974,40 @@
       <c r="L83" s="10"/>
       <c r="M83" s="2"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="6" t="s">
+      <c r="O83" s="6"/>
+      <c r="P83" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q83" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="P83" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q83" s="7"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
       <c r="M84" s="2"/>
       <c r="N84" s="5"/>
-      <c r="O84" s="6"/>
+      <c r="O84" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="P84" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q84" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="Q84" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
@@ -3823,9 +4040,11 @@
         <v>173</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q85" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
@@ -3851,39 +4070,41 @@
       <c r="O86" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="P86" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q86" s="7"/>
+      <c r="P86" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q86" s="24" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
+      <c r="A87" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
       <c r="M87" s="2"/>
       <c r="N87" s="5"/>
-      <c r="O87" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="P87" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3904,11 +4125,15 @@
       <c r="L88" s="7"/>
       <c r="M88" s="2"/>
       <c r="N88" s="5"/>
-      <c r="O88" s="7"/>
+      <c r="O88" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="P88" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q88" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
@@ -3926,47 +4151,51 @@
       <c r="G89" s="4"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="16"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="2"/>
       <c r="N89" s="5"/>
-      <c r="O89" s="27" t="s">
+      <c r="O89" s="6" t="s">
         <v>181</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q89" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
       <c r="M90" s="2"/>
       <c r="N90" s="5"/>
-      <c r="O90" s="27" t="s">
+      <c r="O90" s="6" t="s">
         <v>183</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q90" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3983,13 +4212,13 @@
       <c r="L91" s="7"/>
       <c r="M91" s="2"/>
       <c r="N91" s="5"/>
-      <c r="O91" s="27" t="s">
-        <v>185</v>
-      </c>
+      <c r="O91" s="7"/>
       <c r="P91" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="Q91" s="7"/>
+      <c r="Q91" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
@@ -4007,32 +4236,30 @@
       <c r="G92" s="4"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="16"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="15" t="s">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="Q92" s="7"/>
-    </row>
-    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4041,7 +4268,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>22</v>
@@ -4064,7 +4291,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
@@ -4076,7 +4303,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
-      <c r="J95" s="16"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="2"/>
@@ -4086,20 +4313,20 @@
       <c r="Q95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
+      <c r="A96" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -4108,7 +4335,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>22</v>
@@ -4133,7 +4360,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
@@ -4149,7 +4376,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
-      <c r="J98" s="16"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="2"/>
@@ -4159,20 +4386,20 @@
       <c r="Q98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
+      <c r="A99" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -4181,7 +4408,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>22</v>
@@ -4206,7 +4433,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
@@ -4222,7 +4449,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
-      <c r="J101" s="16"/>
+      <c r="J101" s="4"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="2"/>
@@ -4231,21 +4458,21 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
+    <row r="102" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -4254,7 +4481,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4279,7 +4506,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4295,7 +4522,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
-      <c r="J104" s="16"/>
+      <c r="J104" s="4"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="2"/>
@@ -4304,21 +4531,21 @@
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="23"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
+    <row r="105" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -4327,7 +4554,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4352,7 +4579,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4368,7 +4595,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
-      <c r="J107" s="16"/>
+      <c r="J107" s="4"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="2"/>
@@ -4417,7 +4644,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4450,10 +4677,18 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
+      <c r="N111" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
@@ -4493,10 +4728,18 @@
         <v>12</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
+      <c r="N112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="P112" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q112" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
@@ -4514,10 +4757,16 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P113" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q113" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
@@ -4535,9 +4784,7 @@
       <c r="E114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -4545,10 +4792,16 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P114" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q114" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
@@ -4566,14 +4819,20 @@
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
       <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P115" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q115" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -4587,16 +4846,24 @@
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
       <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="P116" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q116" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B117" s="4"/>
+      <c r="B117" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -4608,16 +4875,24 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P117" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q117" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B118" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -4629,16 +4904,24 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P118" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q118" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B119" s="4"/>
+      <c r="B119" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -4650,19 +4933,33 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P119" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q119" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -4671,16 +4968,24 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P120" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q120" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B121" s="4"/>
+      <c r="A121" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -4692,14 +4997,20 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="P121" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q121" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -4713,16 +5024,24 @@
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="P122" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q122" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="4"/>
+      <c r="B123" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -4734,16 +5053,22 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q123" s="7" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="4"/>
+      <c r="B124" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -4755,17 +5080,25 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q124" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -4776,19 +5109,33 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="P125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q125" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -4797,19 +5144,29 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P126" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q126" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B127" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -4818,58 +5175,82 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q127" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O128" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="P128" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P129" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
+      <c r="Q129" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B130" s="4"/>
+      <c r="A130" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -4881,16 +5262,24 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P130" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q130" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B131" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -4902,18 +5291,28 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="P131" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q131" s="7" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="C132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -4923,121 +5322,175 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
+      <c r="N132" s="5"/>
+      <c r="O132" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="P132" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q132" s="26" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="A133" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="28"/>
       <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P133" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q133" s="29" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q134" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
-      <c r="Q134" s="2"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
       <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
+      <c r="N135" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="P135" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q135" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="16"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" s="5"/>
+      <c r="O136" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P136" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q136" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="16"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" s="2"/>
-      <c r="Q137" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="N137" s="5"/>
+      <c r="O137" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="P137" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q137" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B138" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -5048,20 +5501,36 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" s="2"/>
-      <c r="Q138" s="2"/>
+      <c r="M138" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="P138" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q138" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="A139" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -5069,20 +5538,37 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
+      <c r="M139" s="2" t="n">
+        <f aca="false">M138*3/2 -M137*2/3-M136/3</f>
+        <v>19</v>
+      </c>
+      <c r="N139" s="5"/>
+      <c r="O139" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P139" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q139" s="7" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
+      <c r="A140" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -5091,19 +5577,35 @@
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
+      <c r="N140" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="P140" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q140" s="7" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
+      <c r="A141" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -5112,19 +5614,31 @@
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P141" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q141" s="7" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="A142" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -5133,39 +5647,59 @@
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="P142" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q142" s="7" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B143" s="10"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
+      <c r="A143" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
       <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
+      <c r="N143" s="5"/>
+      <c r="O143" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="P143" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q143" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="26" t="s">
-        <v>221</v>
+      <c r="A144" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -5175,47 +5709,59 @@
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P144" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q144" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
+      <c r="A145" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
+      <c r="N145" s="5"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145" s="7" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B146" s="10"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
+      <c r="A146" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -5223,13 +5769,19 @@
       <c r="Q146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="26" t="s">
-        <v>224</v>
+      <c r="A147" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -5244,20 +5796,20 @@
       <c r="Q147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
+      <c r="A148" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -5265,20 +5817,22 @@
       <c r="Q148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B149" s="10"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
+      <c r="A149" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -5286,20 +5840,26 @@
       <c r="Q149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
+      <c r="A150" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -5307,20 +5867,20 @@
       <c r="Q150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
+      <c r="A151" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -5328,41 +5888,49 @@
       <c r="Q151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
+      <c r="A152" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="23"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -5371,40 +5939,42 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B154" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
       <c r="Q154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="7"/>
+    <row r="155" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="21"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="21"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -5412,20 +5982,28 @@
       <c r="Q155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="23"/>
+      <c r="A156" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -5434,9 +6012,11 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B157" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -5444,7 +6024,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
       <c r="M157" s="2"/>
@@ -5454,20 +6034,20 @@
       <c r="Q157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="16"/>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
+      <c r="A158" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
+      <c r="J158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="21"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -5475,20 +6055,28 @@
       <c r="Q158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="23"/>
+      <c r="A159" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -5497,9 +6085,11 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B160" s="4"/>
+        <v>269</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -5507,7 +6097,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
+      <c r="J160" s="4"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
       <c r="M160" s="2"/>
@@ -5517,20 +6107,20 @@
       <c r="Q160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="16"/>
-      <c r="K161" s="7"/>
-      <c r="L161" s="7"/>
+      <c r="A161" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+      <c r="E161" s="20"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="21"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -5538,20 +6128,28 @@
       <c r="Q161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="22"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="23"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="23"/>
+      <c r="A162" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -5560,17 +6158,19 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="C163" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
+      <c r="J163" s="4"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
       <c r="M163" s="2"/>
@@ -5580,20 +6180,20 @@
       <c r="Q163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="16"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="7"/>
+      <c r="A164" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="21"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="21"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -5601,20 +6201,28 @@
       <c r="Q164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="23"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="23"/>
+      <c r="A165" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -5623,17 +6231,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="2"/>
@@ -5643,20 +6259,20 @@
       <c r="Q166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="7"/>
-      <c r="L167" s="7"/>
+      <c r="A167" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+      <c r="E167" s="20"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="21"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="21"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -5664,20 +6280,26 @@
       <c r="Q167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="B168" s="22"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="22"/>
-      <c r="F168" s="22"/>
-      <c r="G168" s="22"/>
-      <c r="H168" s="23"/>
-      <c r="I168" s="23"/>
-      <c r="J168" s="23"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="23"/>
+      <c r="A168" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -5686,17 +6308,23 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
+      <c r="E169" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
+      <c r="J169" s="4"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="2"/>
@@ -5706,20 +6334,20 @@
       <c r="Q169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
+      <c r="A170" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="21"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="21"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -5727,20 +6355,24 @@
       <c r="Q170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="22"/>
-      <c r="H171" s="23"/>
-      <c r="I171" s="23"/>
-      <c r="J171" s="23"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="23"/>
+      <c r="A171" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -5749,73 +6381,111 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
+      <c r="J172" s="4"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="16"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
+      <c r="A173" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="21"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="A174" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
       <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="Q175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M177" s="2"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M178" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="N12:N13"/>
@@ -5827,11 +6497,15 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N48:N56"/>
+    <mergeCell ref="N49:N56"/>
     <mergeCell ref="N57:N59"/>
-    <mergeCell ref="N60:N68"/>
-    <mergeCell ref="N69:N77"/>
-    <mergeCell ref="N78:N92"/>
+    <mergeCell ref="N60:N67"/>
+    <mergeCell ref="N68:N76"/>
+    <mergeCell ref="N77:N91"/>
+    <mergeCell ref="N112:N127"/>
+    <mergeCell ref="N128:N134"/>
+    <mergeCell ref="N135:N139"/>
+    <mergeCell ref="N140:N145"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/EdPracVar15C#/EdPracVar15_Test.xlsx
+++ b/EdPracVar15C#/EdPracVar15_Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="322">
   <si>
     <t xml:space="preserve">Тестирование программы для перdого задания учебной практики</t>
   </si>
@@ -326,6 +326,185 @@
   </si>
   <si>
     <t xml:space="preserve">4.4.2. Не входит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование программы для второго задания учебной практики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е =  'строка'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Вычисление значения корня функции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е = отсутствие значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка ввода! Введено число &lt;= min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.Для е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е = -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.1 е не число</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е = 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ошибка ввода! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Введено число &gt;= max</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.2. е отсутствие значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е = 1,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.3 0 &lt; e &gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">е = 0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,1 = 1,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,1 = 1,25429428837078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.4. e = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e = 0,01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,1 = 1,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,01 = 1,25606922709861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.5 e &lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e = 0,001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,1 = 1,256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,001 = 1,25612855603829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.6 e = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e = 0,0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,1 = 1,2561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корень уравнения с точностью 0,0001 = 1,25612855603829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.7 e &gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 Вывод значения корня</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ошибка ввода! Введено не действительное число</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ошибка ввода! Введено число &lt;= min</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Ошибка ввода! Введено число &gt;= max</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2. Цикл do-while</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1. Один проход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.2. Более одного прохода</t>
   </si>
   <si>
     <t xml:space="preserve">Тестирование программы для третьего задания учебной практики</t>
@@ -1031,6 +1210,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1050,12 +1235,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1277,19 +1456,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1299,6 +1470,34 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1317,23 +1516,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1349,20 +1532,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1458,10 +1637,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R178"/>
+  <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="A133:C133"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M136" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P168" activeCellId="0" sqref="P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1477,7 +1656,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1677,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1517,7 +1696,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1645,23 +1824,22 @@
       <c r="Q5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6" t="s">
@@ -1673,23 +1851,22 @@
       <c r="Q6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="2"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
@@ -1701,10 +1878,9 @@
       <c r="Q7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1731,9 +1907,8 @@
       <c r="Q8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1761,9 +1936,8 @@
       <c r="Q9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -1793,9 +1967,8 @@
       <c r="Q10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1823,9 +1996,8 @@
       <c r="Q11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1855,9 +2027,8 @@
       <c r="Q12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
@@ -1885,9 +2056,8 @@
       <c r="Q13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -1917,9 +2087,8 @@
       <c r="Q14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1947,9 +2116,8 @@
       <c r="Q15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>52</v>
       </c>
@@ -1979,9 +2147,8 @@
       <c r="Q16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -2009,9 +2176,8 @@
       <c r="Q17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -2041,9 +2207,8 @@
       <c r="Q18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>61</v>
       </c>
@@ -2071,9 +2236,8 @@
       <c r="Q19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -2103,23 +2267,22 @@
       <c r="Q20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="2"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
@@ -2131,9 +2294,8 @@
       <c r="Q21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>69</v>
       </c>
@@ -2167,9 +2329,8 @@
       <c r="Q22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="11"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
@@ -2197,9 +2358,8 @@
       <c r="Q23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
         <v>73</v>
       </c>
@@ -2229,9 +2389,8 @@
       <c r="Q24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -2259,9 +2418,8 @@
       <c r="Q25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
         <v>78</v>
       </c>
@@ -2293,9 +2451,8 @@
       <c r="Q26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>81</v>
       </c>
@@ -2325,9 +2482,8 @@
       <c r="Q27" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -2357,9 +2513,8 @@
       <c r="Q28" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
@@ -2406,31 +2561,31 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
@@ -2462,10 +2617,10 @@
         <v>22</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
@@ -2491,10 +2646,10 @@
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
@@ -2534,10 +2689,10 @@
         <v>22</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
@@ -2557,10 +2712,10 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
@@ -2600,52 +2755,52 @@
         <v>22</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
@@ -2685,10 +2840,10 @@
         <v>22</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
@@ -2708,33 +2863,33 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
         <v>100</v>
       </c>
@@ -2763,7 +2918,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>101</v>
       </c>
@@ -2799,7 +2954,9 @@
       <c r="Q43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2837,226 +2994,267 @@
       <c r="Q45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="A46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="N46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>12</v>
+      <c r="N47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="16"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P49" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="R49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="A50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="2"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="P50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="Q50" s="7" t="s">
+      <c r="Q50" s="17" t="s">
         <v>107</v>
       </c>
+      <c r="R50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
+      <c r="A51" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="2"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>104</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="R51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="A52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="2"/>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="R52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>111</v>
+      <c r="A53" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3067,18 +3265,19 @@
       <c r="M53" s="2"/>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>107</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="R53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>22</v>
@@ -3094,20 +3293,23 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="O54" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="R54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>22</v>
@@ -3123,20 +3325,23 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="5"/>
+      <c r="N55" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="O55" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="R55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -3152,18 +3357,23 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="7"/>
+      <c r="N56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="P56" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="R56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>22</v>
@@ -3180,89 +3390,72 @@
       <c r="L57" s="4"/>
       <c r="M57" s="2"/>
       <c r="N57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>115</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="A58" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>118</v>
-      </c>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="A59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="N59" s="19"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="4"/>
+      <c r="A60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3272,28 +3465,20 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -3303,26 +3488,20 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P61" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q61" s="24" t="s">
-        <v>129</v>
-      </c>
+      <c r="N61" s="21"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -3332,90 +3511,70 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="N62" s="21"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="A63" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+    </row>
+    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="N64" s="21"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D65" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -3423,113 +3582,83 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="N65" s="21"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
+      <c r="A66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="N66" s="21"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>141</v>
-      </c>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
         <v>22</v>
       </c>
@@ -3539,203 +3668,157 @@
       <c r="E69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P69" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q69" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="P72" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q72" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>147</v>
+      <c r="N74" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24" t="s">
-        <v>154</v>
+      <c r="A75" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3743,113 +3826,121 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="5"/>
+      <c r="N75" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="O75" s="6" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
+      <c r="A76" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="2"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="6"/>
+      <c r="O76" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="P76" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="A77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="N77" s="5"/>
       <c r="O77" s="6" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="A78" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="2"/>
       <c r="N78" s="5"/>
       <c r="O78" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P78" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q78" s="24" t="s">
-        <v>129</v>
+        <v>147</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q78" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B79" s="4"/>
+      <c r="A79" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -3858,52 +3949,54 @@
       <c r="L79" s="4"/>
       <c r="M79" s="2"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="7"/>
+      <c r="O79" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="P79" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
+      <c r="A80" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="2"/>
       <c r="N80" s="5"/>
       <c r="O80" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24" t="s">
-        <v>164</v>
+      <c r="A81" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -3915,30 +4008,26 @@
       <c r="M81" s="2"/>
       <c r="N81" s="5"/>
       <c r="O81" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A82" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -3947,112 +4036,112 @@
       <c r="L82" s="4"/>
       <c r="M82" s="2"/>
       <c r="N82" s="5"/>
-      <c r="O82" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="P82" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q82" s="24" t="s">
-        <v>150</v>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q82" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
+      <c r="A83" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="6"/>
+      <c r="N83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="P83" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
+      <c r="A84" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="2"/>
       <c r="N84" s="5"/>
       <c r="O84" s="6" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="A85" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="2"/>
       <c r="N85" s="5"/>
-      <c r="O85" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="O85" s="7"/>
       <c r="P85" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A86" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>22</v>
@@ -4066,307 +4155,375 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="5"/>
+      <c r="N86" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="O86" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="P86" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q86" s="24" t="s">
-        <v>176</v>
+        <v>151</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
+      <c r="A87" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q87" s="7" t="s">
-        <v>131</v>
+      <c r="N87" s="24"/>
+      <c r="O87" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P87" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q87" s="25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="4"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="2"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="N88" s="24"/>
+      <c r="O88" s="7"/>
       <c r="P88" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G89" s="4"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="5"/>
+      <c r="N89" s="24"/>
       <c r="O89" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
+      <c r="A90" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="5"/>
+      <c r="N90" s="24"/>
       <c r="O90" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="7"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="P91" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
+      <c r="A92" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
+      <c r="N94" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C95" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G95" s="4"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P95" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q95" s="25" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
+      <c r="A96" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A97" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="4"/>
+      <c r="A98" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E98" s="4" t="s">
         <v>22</v>
       </c>
@@ -4374,41 +4531,51 @@
         <v>22</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="P98" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q98" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
+      <c r="A99" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>192</v>
+      <c r="A100" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>22</v>
@@ -4420,20 +4587,26 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
       <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>193</v>
+      <c r="A101" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4" t="s">
@@ -4447,1090 +4620,1018 @@
         <v>22</v>
       </c>
       <c r="G101" s="4"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
       <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-    </row>
-    <row r="102" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="18" t="s">
+      <c r="N101" s="5"/>
+      <c r="O101" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P101" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q101" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
+      <c r="Q102" s="7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D103" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
       <c r="G103" s="4"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
+      <c r="N103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
-        <v>197</v>
+      <c r="A104" s="25" t="s">
+        <v>198</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="4"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
       <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-    </row>
-    <row r="105" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P104" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q104" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
       <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
+      <c r="A106" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
       <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P106" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q106" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B107" s="4"/>
+      <c r="A107" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
       <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="P107" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q107" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
+      <c r="A108" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
       <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="P108" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q108" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="A109" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
       <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q109" s="7" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="A110" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="P110" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q110" s="7" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="A111" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O111" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q111" s="3" t="s">
-        <v>16</v>
+      <c r="N111" s="5"/>
+      <c r="O111" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="P111" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q111" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A112" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
       <c r="M112" s="2"/>
-      <c r="N112" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="N112" s="5"/>
       <c r="O112" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P112" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q112" s="7" t="s">
-        <v>104</v>
+        <v>212</v>
+      </c>
+      <c r="P112" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q112" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="A113" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
       <c r="M113" s="2"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="O113" s="7"/>
       <c r="P113" s="7" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="Q113" s="7" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
       <c r="M114" s="2"/>
       <c r="N114" s="5"/>
       <c r="O114" s="6" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="P114" s="7" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="Q114" s="7" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
+      <c r="A115" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
       <c r="M115" s="2"/>
       <c r="N115" s="5"/>
       <c r="O115" s="6" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="P115" s="7" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
+      <c r="A116" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
       <c r="M116" s="2"/>
       <c r="N116" s="5"/>
       <c r="O116" s="6" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="P116" s="7" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="Q116" s="7" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A117" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
       <c r="M117" s="2"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="O117" s="7"/>
       <c r="P117" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q117" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
       <c r="M118" s="2"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="P118" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q118" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+    </row>
+    <row r="119" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="P119" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q119" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
       <c r="M120" s="2"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P120" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q120" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="4"/>
+      <c r="A121" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="P121" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q121" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
+      <c r="A122" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="P122" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q122" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="s">
-        <v>126</v>
+      <c r="A123" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q123" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C124" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
       <c r="M124" s="2"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="P124" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q124" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="A125" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="P125" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q125" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P126" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q126" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
       <c r="M127" s="2"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q127" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O128" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P128" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q128" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
+      <c r="A129" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
       <c r="M129" s="2"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P129" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q129" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A130" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="P130" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q130" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="P131" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q131" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B132" s="4"/>
-      <c r="C132" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="P132" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q132" s="26" t="s">
-        <v>232</v>
-      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="27"/>
-      <c r="C133" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
+      <c r="A133" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
       <c r="M133" s="2"/>
-      <c r="N133" s="5"/>
-      <c r="O133" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P133" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q133" s="29" t="s">
-        <v>235</v>
-      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q134" s="7" t="s">
-        <v>237</v>
-      </c>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
       <c r="M135" s="2"/>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O135" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P135" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q135" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N136" s="5"/>
-      <c r="O136" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="P136" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q136" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="2" t="n">
+      <c r="E138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N137" s="5"/>
-      <c r="O137" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="P137" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q137" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N138" s="5"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="O138" s="6" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="P138" s="7" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="Q138" s="7" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -5538,24 +5639,21 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="n">
-        <f aca="false">M138*3/2 -M137*2/3-M136/3</f>
-        <v>19</v>
-      </c>
+      <c r="M139" s="2"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="7" t="s">
-        <v>243</v>
+      <c r="O139" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="P139" s="7" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="Q139" s="7" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="24" t="s">
-        <v>245</v>
+      <c r="A140" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>22</v>
@@ -5577,101 +5675,81 @@
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="2"/>
-      <c r="N140" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="N140" s="5"/>
       <c r="O140" s="6" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="P140" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="A141" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="9"/>
       <c r="M141" s="2"/>
       <c r="N141" s="5"/>
       <c r="O141" s="6" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="P141" s="7" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="Q141" s="7" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
+      <c r="A142" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
       <c r="M142" s="2"/>
       <c r="N142" s="5"/>
       <c r="O142" s="6" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="P142" s="7" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="Q142" s="7" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="24" t="s">
-        <v>249</v>
+      <c r="A143" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -5682,24 +5760,24 @@
       <c r="M143" s="2"/>
       <c r="N143" s="5"/>
       <c r="O143" s="6" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="P143" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="Q143" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="B144" s="4"/>
+      <c r="A144" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -5710,51 +5788,61 @@
       <c r="L144" s="4"/>
       <c r="M144" s="2"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="7" t="s">
-        <v>252</v>
+      <c r="O144" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="P144" s="7" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="Q144" s="7" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
+      <c r="A145" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
       <c r="M145" s="2"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="7"/>
+      <c r="O145" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="P145" s="7" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="Q145" s="7" t="s">
-        <v>254</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="24" t="s">
-        <v>255</v>
+      <c r="A146" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -5763,25 +5851,27 @@
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="P146" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q146" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A147" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -5790,40 +5880,52 @@
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="P147" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q147" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
+      <c r="A148" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9"/>
       <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="P148" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q148" s="7" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A149" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -5834,25 +5936,25 @@
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q149" s="7" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="24" t="s">
-        <v>259</v>
+      <c r="A150" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="4"/>
-      <c r="D150" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -5861,66 +5963,90 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="P150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q150" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
+      <c r="A151" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
       <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="P151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q151" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
+      <c r="A152" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
       <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P152" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q152" s="7" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
         <v>22</v>
       </c>
@@ -5932,19 +6058,25 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
+      <c r="N153" s="5"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q153" s="7" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -5955,64 +6087,78 @@
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-    </row>
-    <row r="155" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="20"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
-      <c r="J155" s="21"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="21"/>
+      <c r="N154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="P154" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q154" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
+      <c r="L155" s="9"/>
       <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="P155" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q155" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
-        <v>265</v>
+      <c r="A156" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="7"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="P156" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q156" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>22</v>
@@ -6022,145 +6168,179 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="7"/>
-      <c r="L157" s="7"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
       <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="P157" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q157" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B158" s="20"/>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
       <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
+      <c r="N158" s="5"/>
+      <c r="O158" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="P158" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q158" s="27" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
+      <c r="A159" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" s="29"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="29"/>
+      <c r="I159" s="29"/>
+      <c r="J159" s="29"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="29"/>
       <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P159" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q159" s="17" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="7"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
       <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q160" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B161" s="20"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
+      <c r="A161" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9"/>
       <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
+      <c r="N161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="P161" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q161" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="7"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" s="5"/>
+      <c r="O162" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="P162" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q162" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C163" s="4" t="s">
         <v>22</v>
       </c>
@@ -6168,41 +6348,59 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="7"/>
-      <c r="L163" s="7"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="N163" s="5"/>
+      <c r="O163" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P163" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q163" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="20"/>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
-      <c r="J164" s="21"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="21"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
+      <c r="A164" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N164" s="5"/>
+      <c r="O164" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="P164" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q164" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>22</v>
@@ -6218,20 +6416,29 @@
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
-      <c r="L165" s="7"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="2" t="n">
+        <f aca="false">M164*3/2 -M163*2/3-M162/3</f>
+        <v>19</v>
+      </c>
+      <c r="N165" s="5"/>
+      <c r="O165" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P165" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q165" s="7" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
-        <v>275</v>
+      <c r="A166" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>22</v>
@@ -6247,41 +6454,63 @@
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="7"/>
-      <c r="L166" s="7"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
+      <c r="N166" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P166" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q166" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="21"/>
-      <c r="J167" s="21"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="21"/>
+      <c r="A167" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
       <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="P167" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q167" s="7" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
-        <v>277</v>
+      <c r="A168" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>22</v>
@@ -6295,20 +6524,26 @@
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
       <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="P168" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q168" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
-        <v>278</v>
+      <c r="A169" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>22</v>
@@ -6322,131 +6557,153 @@
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="7"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
       <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
+      <c r="N169" s="5"/>
+      <c r="O169" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="P169" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q169" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-      <c r="J170" s="21"/>
-      <c r="K170" s="21"/>
-      <c r="L170" s="21"/>
+      <c r="A170" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P170" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q170" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
+      <c r="A171" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="9"/>
       <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q171" s="7" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B172" s="4"/>
+      <c r="A172" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="7"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="20"/>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="21"/>
-      <c r="J173" s="21"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
+      <c r="A173" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7"/>
+      <c r="A174" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A175" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="B175" s="4"/>
       <c r="C175" s="4" t="s">
         <v>22</v>
       </c>
@@ -6454,38 +6711,664 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="7"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="A176" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
       <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+      <c r="L177" s="9"/>
       <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="13"/>
       <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+    </row>
+    <row r="181" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="15"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B196" s="14"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="7"/>
+      <c r="I197" s="7"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="7"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="7"/>
+      <c r="I198" s="7"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="7"/>
+      <c r="L198" s="7"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="Q198" s="2"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B199" s="14"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="Q199" s="2"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="7"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="Q200" s="2"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="2"/>
+      <c r="N201" s="2"/>
+      <c r="Q201" s="2"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M203" s="2"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M204" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="N4:N9"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="N12:N13"/>
@@ -6497,15 +7380,16 @@
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="N26:N27"/>
     <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N49:N56"/>
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="N60:N67"/>
-    <mergeCell ref="N68:N76"/>
-    <mergeCell ref="N77:N91"/>
-    <mergeCell ref="N112:N127"/>
-    <mergeCell ref="N128:N134"/>
-    <mergeCell ref="N135:N139"/>
-    <mergeCell ref="N140:N145"/>
+    <mergeCell ref="N47:N53"/>
+    <mergeCell ref="N75:N82"/>
+    <mergeCell ref="N83:N85"/>
+    <mergeCell ref="N86:N93"/>
+    <mergeCell ref="N94:N102"/>
+    <mergeCell ref="N103:N117"/>
+    <mergeCell ref="N138:N153"/>
+    <mergeCell ref="N154:N160"/>
+    <mergeCell ref="N161:N165"/>
+    <mergeCell ref="N166:N171"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
